--- a/test/data/25peptides_5perpool_3x_noseqsim_sat-solver.xlsx
+++ b/test/data/25peptides_5perpool_3x_noseqsim_sat-solver.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leework/Documents/Research/projects/project_ace/ace/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94A1689-CBE4-294A-9D9C-356A5E0A4E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3AB25D-DC08-6E4C-A19D-D76FCF6000FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="1000" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="block_assignment" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1912,7 +1912,7 @@
       <c r="D2">
         <v>100</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="b">
         <v>0</v>
       </c>
     </row>
